--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\UNO Projects\Web Applications\backend\React Backend\React Calculator with security and jwt backend\react-cal-backend\react-cal-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3031B9-EB31-4C79-A316-9BFCF72CED56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBEDC4B-8010-4165-AE5A-29183D2844B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{687091DC-3EC1-44D5-9023-3BA4E122A27E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A5764-5E3C-46B0-8FB9-EDAB2FFCE78D}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +486,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
